--- a/documents/開発手引.xlsx
+++ b/documents/開発手引.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gnshd\OneDrive - エースコア\デスクトップ\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B56F78-D847-47E6-9E29-0E0B848B1498}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{21598178-7487-4528-92DD-BB08659DB01E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="ファイル構造" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
     <sheet name="画像ファイル" sheetId="9" r:id="rId6"/>
     <sheet name="ローカルサーバー" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="140">
   <si>
     <t>site</t>
     <phoneticPr fontId="1"/>
@@ -466,7 +460,7 @@
     <rPh sb="14" eb="18">
       <t>カイハツホウホウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>CSSファイルの配置ルール</t>
@@ -839,7 +833,7 @@
     <rPh sb="12" eb="14">
       <t>サンコウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>&lt;nav class="navbar navbar-expand-lg navbar-light bg-light"&gt;</t>
@@ -903,7 +897,7 @@
     <rPh sb="18" eb="20">
       <t>テキオウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>（記入済みのnavタグについては削除して新しく開発する）</t>
@@ -922,14 +916,14 @@
     <rPh sb="23" eb="25">
       <t>カイハツ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>※フッターも同様</t>
     <rPh sb="6" eb="8">
       <t>ドウヨウ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>■「site/static/css」以下に担当ページ名のフォルダに配置する</t>
@@ -983,40 +977,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①「bin/hugo_0.59.1_Windows-(開発PCのbit数)/hugo_server.bat」をコピーする</t>
-    <rPh sb="27" eb="29">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>②「site」フォルダ直下に配置する</t>
-    <rPh sb="11" eb="13">
-      <t>チョッカ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ハイチ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>③「hugo_server.bat」をダブルクリック</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>④「localhost:1313」にアクセスしページが表示されていれば成功</t>
-    <rPh sb="27" eb="29">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>セイコウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>■「site/static/img」以下に担当ページ名のフォルダを作成し配置する</t>
     <rPh sb="21" eb="23">
       <t>タントウ</t>
@@ -1054,22 +1014,22 @@
   </si>
   <si>
     <t>HTML</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>CSS</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>background-image:url(/フォルダ名/image.png);</t>
     <rPh sb="26" eb="27">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>&lt;img src="/フォルダ名/image.png"&gt;</t>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>HTMLやCSSから指定する場合は以下のように記述する</t>
@@ -1085,7 +1045,7 @@
     <rPh sb="23" eb="25">
       <t>キジュツ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>■「site/static/css」以下の担当名のフォルダに配置する</t>
@@ -1115,7 +1075,7 @@
     <rPh sb="43" eb="45">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>「site/layouts/_default/baseof.html」のbodyタグ最下部に追記する</t>
@@ -1125,14 +1085,34 @@
     <rPh sb="46" eb="48">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>①「bin/hugo_0.59.1_Windows-(開発PCのbit数)/hugo_server.bat」をダブルクリックする</t>
+    <rPh sb="27" eb="29">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>②「localhost:1313」にアクセスしページが表示されていれば成功</t>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1146,14 +1126,6 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
@@ -1375,7 +1347,7 @@
         <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D189551-A04E-40CC-B3FC-0D5DE4CBA53E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D189551-A04E-40CC-B3FC-0D5DE4CBA53E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1429,7 +1401,7 @@
         <xdr:cNvPr id="5" name="直線コネクタ 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD2EB2A1-9675-4F59-A5BD-8016F6A6C95A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD2EB2A1-9675-4F59-A5BD-8016F6A6C95A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1479,7 +1451,7 @@
         <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DE49B1E-3B1B-4377-877E-8811DDC5842A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9DE49B1E-3B1B-4377-877E-8811DDC5842A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1533,7 +1505,7 @@
         <xdr:cNvPr id="14" name="直線コネクタ 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7E8FA03-3C2E-418B-B857-A127BE0EAD07}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E7E8FA03-3C2E-418B-B857-A127BE0EAD07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1583,7 +1555,7 @@
         <xdr:cNvPr id="15" name="直線コネクタ 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DBE09FE-AF8B-483A-9474-319FFFBBFE8E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1DBE09FE-AF8B-483A-9474-319FFFBBFE8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1633,7 +1605,7 @@
         <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58324CF2-8CF1-4408-BE37-68067B4A114F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{58324CF2-8CF1-4408-BE37-68067B4A114F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1687,7 +1659,7 @@
         <xdr:cNvPr id="22" name="直線コネクタ 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9607ECDF-D3C1-4E2C-94B4-E299BA2C04EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9607ECDF-D3C1-4E2C-94B4-E299BA2C04EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1742,7 +1714,7 @@
         <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DB6BAB4-D7BD-43F9-A7B4-250162ED7944}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9DB6BAB4-D7BD-43F9-A7B4-250162ED7944}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1796,7 +1768,7 @@
         <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB554F1B-3F99-4D08-B4BA-ACB85111CCBB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EB554F1B-3F99-4D08-B4BA-ACB85111CCBB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1850,7 +1822,7 @@
         <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9C1B1F6-420E-4238-8D1C-A015B688C18C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D9C1B1F6-420E-4238-8D1C-A015B688C18C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1904,7 +1876,7 @@
         <xdr:cNvPr id="11" name="直線コネクタ 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24C715BD-1406-48A6-821E-8E251D469E59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{24C715BD-1406-48A6-821E-8E251D469E59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1954,7 +1926,7 @@
         <xdr:cNvPr id="12" name="直線コネクタ 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54F7B98C-38BE-4511-AE7A-84ABCEDD0A40}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{54F7B98C-38BE-4511-AE7A-84ABCEDD0A40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2004,7 +1976,7 @@
         <xdr:cNvPr id="14" name="直線コネクタ 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A256E36-093D-463A-960D-D0525CFFB22E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A256E36-093D-463A-960D-D0525CFFB22E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2054,7 +2026,7 @@
         <xdr:cNvPr id="15" name="直線コネクタ 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF960BAC-A881-4DC4-A90A-19E3CC528390}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CF960BAC-A881-4DC4-A90A-19E3CC528390}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2104,7 +2076,7 @@
         <xdr:cNvPr id="24" name="直線コネクタ 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{863FF331-052E-429C-A00C-5084D3D4F80B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{863FF331-052E-429C-A00C-5084D3D4F80B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2154,7 +2126,7 @@
         <xdr:cNvPr id="27" name="四角形: 角を丸くする 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96712893-BE60-4E26-8621-392C9F040CA3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{96712893-BE60-4E26-8621-392C9F040CA3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2220,7 +2192,7 @@
         <xdr:cNvPr id="28" name="四角形: 角を丸くする 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1655AB05-DC15-472B-A3CC-C0D717C46C86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1655AB05-DC15-472B-A3CC-C0D717C46C86}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2286,7 +2258,7 @@
         <xdr:cNvPr id="32" name="直線コネクタ 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE609472-01EF-46D5-9DE3-E6437E84EF02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE609472-01EF-46D5-9DE3-E6437E84EF02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2343,7 +2315,7 @@
         <xdr:cNvPr id="33" name="直線コネクタ 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB947365-2099-42B4-97C8-783180E3C836}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DB947365-2099-42B4-97C8-783180E3C836}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2405,7 +2377,7 @@
         <xdr:cNvPr id="2" name="直線矢印コネクタ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{707A081C-BF2D-4CF5-B471-616944C9BFAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{707A081C-BF2D-4CF5-B471-616944C9BFAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2459,7 +2431,7 @@
         <xdr:cNvPr id="7" name="直線コネクタ 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D9A58D4-967F-451A-8B06-29B51CBAF2F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0D9A58D4-967F-451A-8B06-29B51CBAF2F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2537,7 +2509,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2589,7 +2561,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2783,35 +2755,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FA5905C-F90E-4011-A913-8771324F788C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="4" width="3.875" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6">
       <c r="B2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6">
       <c r="C3" t="s">
         <v>22</v>
       </c>
@@ -2819,22 +2791,22 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6">
       <c r="B4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6">
       <c r="C5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6">
       <c r="D6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6">
       <c r="D7" t="s">
         <v>24</v>
       </c>
@@ -2842,7 +2814,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6">
       <c r="D8" t="s">
         <v>121</v>
       </c>
@@ -2850,27 +2822,27 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6">
       <c r="D9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6">
       <c r="D10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6">
       <c r="C11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6">
       <c r="D12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6">
       <c r="D13" t="s">
         <v>24</v>
       </c>
@@ -2878,7 +2850,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6">
       <c r="D14" t="s">
         <v>121</v>
       </c>
@@ -2886,22 +2858,22 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6">
       <c r="D15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6">
       <c r="D16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10">
       <c r="B17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10">
       <c r="C18" t="s">
         <v>34</v>
       </c>
@@ -2909,7 +2881,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10">
       <c r="C19" t="s">
         <v>35</v>
       </c>
@@ -2917,7 +2889,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10">
       <c r="C20" t="s">
         <v>38</v>
       </c>
@@ -2925,17 +2897,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10">
       <c r="C21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10">
       <c r="D22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10">
       <c r="E23" t="s">
         <v>3</v>
       </c>
@@ -2943,7 +2915,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10">
       <c r="D24" t="s">
         <v>4</v>
       </c>
@@ -2951,7 +2923,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10">
       <c r="E25" t="s">
         <v>5</v>
       </c>
@@ -2959,7 +2931,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10">
       <c r="E26" t="s">
         <v>6</v>
       </c>
@@ -2970,7 +2942,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10">
       <c r="D27" t="s">
         <v>7</v>
       </c>
@@ -2978,7 +2950,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10">
       <c r="E28" t="s">
         <v>8</v>
       </c>
@@ -2986,7 +2958,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10">
       <c r="E29" t="s">
         <v>9</v>
       </c>
@@ -2994,7 +2966,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10">
       <c r="E30" t="s">
         <v>10</v>
       </c>
@@ -3002,7 +2974,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10">
       <c r="E31" t="s">
         <v>11</v>
       </c>
@@ -3013,7 +2985,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10">
       <c r="E32" t="s">
         <v>12</v>
       </c>
@@ -3021,7 +2993,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10">
       <c r="E33" t="s">
         <v>13</v>
       </c>
@@ -3029,7 +3001,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10">
       <c r="D34" t="s">
         <v>14</v>
       </c>
@@ -3037,7 +3009,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10">
       <c r="D35" t="s">
         <v>15</v>
       </c>
@@ -3048,7 +3020,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10">
       <c r="C36" t="s">
         <v>40</v>
       </c>
@@ -3056,7 +3028,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10">
       <c r="C37" t="s">
         <v>16</v>
       </c>
@@ -3064,7 +3036,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10">
       <c r="D38" t="s">
         <v>17</v>
       </c>
@@ -3072,7 +3044,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10">
       <c r="D39" t="s">
         <v>18</v>
       </c>
@@ -3083,7 +3055,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10">
       <c r="D40" t="s">
         <v>19</v>
       </c>
@@ -3091,7 +3063,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:10">
       <c r="C41" t="s">
         <v>42</v>
       </c>
@@ -3099,7 +3071,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10">
       <c r="C42" t="s">
         <v>23</v>
       </c>
@@ -3107,7 +3079,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10">
       <c r="B43" t="s">
         <v>28</v>
       </c>
@@ -3115,7 +3087,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10">
       <c r="B44" t="s">
         <v>29</v>
       </c>
@@ -3123,7 +3095,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10">
       <c r="B45" t="s">
         <v>30</v>
       </c>
@@ -3131,7 +3103,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10">
       <c r="B46" t="s">
         <v>26</v>
       </c>
@@ -3148,34 +3120,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C310FC3-0427-4BAE-9FD7-23F4E8194D45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9">
       <c r="B4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" s="1" customFormat="1">
       <c r="B7" s="3" t="s">
         <v>72</v>
       </c>
@@ -3186,7 +3158,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" s="2" customFormat="1">
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -3195,7 +3167,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" s="1" customFormat="1">
       <c r="B9" s="9" t="s">
         <v>93</v>
       </c>
@@ -3209,7 +3181,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" s="2" customFormat="1">
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -3218,7 +3190,7 @@
       <c r="G10" s="7"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" s="1" customFormat="1">
       <c r="B11" s="9" t="s">
         <v>73</v>
       </c>
@@ -3231,7 +3203,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" s="2" customFormat="1">
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -3243,7 +3215,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" s="1" customFormat="1">
       <c r="B13" s="9" t="s">
         <v>74</v>
       </c>
@@ -3254,7 +3226,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" s="2" customFormat="1">
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -3263,7 +3235,7 @@
       <c r="G14" s="7"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" s="1" customFormat="1">
       <c r="B15" s="9" t="s">
         <v>75</v>
       </c>
@@ -3274,7 +3246,7 @@
       <c r="G15" s="10"/>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" s="1" customFormat="1">
       <c r="B16" s="9" t="s">
         <v>76</v>
       </c>
@@ -3288,7 +3260,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:14" s="1" customFormat="1">
       <c r="B17" s="9" t="s">
         <v>77</v>
       </c>
@@ -3299,7 +3271,7 @@
       <c r="G17" s="10"/>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:14" s="2" customFormat="1">
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -3311,7 +3283,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:14" s="1" customFormat="1">
       <c r="B19" s="9" t="s">
         <v>73</v>
       </c>
@@ -3322,7 +3294,7 @@
       <c r="G19" s="10"/>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:14" s="2" customFormat="1">
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -3331,7 +3303,7 @@
       <c r="G20" s="7"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:14" s="1" customFormat="1">
       <c r="B21" s="9" t="s">
         <v>78</v>
       </c>
@@ -3342,7 +3314,7 @@
       <c r="G21" s="10"/>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" spans="2:14" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:14" s="2" customFormat="1">
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -3351,7 +3323,7 @@
       <c r="G22" s="7"/>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:14" s="1" customFormat="1">
       <c r="B23" s="9" t="s">
         <v>94</v>
       </c>
@@ -3362,7 +3334,7 @@
       <c r="G23" s="10"/>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:14" s="1" customFormat="1">
       <c r="B24" s="9" t="s">
         <v>71</v>
       </c>
@@ -3376,7 +3348,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:14" s="1" customFormat="1">
       <c r="B25" s="12" t="s">
         <v>73</v>
       </c>
@@ -3395,17 +3367,17 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:14">
       <c r="G27" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:14">
       <c r="G28" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:14">
       <c r="G29" t="s">
         <v>97</v>
       </c>
@@ -3419,43 +3391,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96E0BB2-9124-4D04-A81C-341B22BADE96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2">
       <c r="B3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2">
       <c r="B11" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -3465,31 +3435,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D80F00-AC10-4556-8E9E-32A9761A3C61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:21">
       <c r="B3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21">
       <c r="B5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:21">
       <c r="B6" s="15" t="s">
         <v>100</v>
       </c>
@@ -3513,7 +3481,7 @@
       <c r="T6" s="16"/>
       <c r="U6" s="17"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:21">
       <c r="B7" s="18" t="s">
         <v>101</v>
       </c>
@@ -3537,7 +3505,7 @@
       <c r="T7" s="19"/>
       <c r="U7" s="20"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:21">
       <c r="B8" s="18" t="s">
         <v>102</v>
       </c>
@@ -3561,7 +3529,7 @@
       <c r="T8" s="19"/>
       <c r="U8" s="20"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21">
       <c r="B9" s="18" t="s">
         <v>103</v>
       </c>
@@ -3585,7 +3553,7 @@
       <c r="T9" s="19"/>
       <c r="U9" s="20"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:21">
       <c r="B10" s="18" t="s">
         <v>104</v>
       </c>
@@ -3609,7 +3577,7 @@
       <c r="T10" s="19"/>
       <c r="U10" s="20"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:21">
       <c r="B11" s="18" t="s">
         <v>105</v>
       </c>
@@ -3633,7 +3601,7 @@
       <c r="T11" s="19"/>
       <c r="U11" s="20"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:21">
       <c r="B12" s="18" t="s">
         <v>106</v>
       </c>
@@ -3657,7 +3625,7 @@
       <c r="T12" s="19"/>
       <c r="U12" s="20"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:21">
       <c r="B13" s="18" t="s">
         <v>107</v>
       </c>
@@ -3681,7 +3649,7 @@
       <c r="T13" s="19"/>
       <c r="U13" s="20"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:21">
       <c r="B14" s="18" t="s">
         <v>108</v>
       </c>
@@ -3705,7 +3673,7 @@
       <c r="T14" s="19"/>
       <c r="U14" s="20"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:21">
       <c r="B15" s="18" t="s">
         <v>109</v>
       </c>
@@ -3729,7 +3697,7 @@
       <c r="T15" s="19"/>
       <c r="U15" s="20"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:21">
       <c r="B16" s="18" t="s">
         <v>110</v>
       </c>
@@ -3753,7 +3721,7 @@
       <c r="T16" s="19"/>
       <c r="U16" s="20"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:21">
       <c r="B17" s="18" t="s">
         <v>111</v>
       </c>
@@ -3777,7 +3745,7 @@
       <c r="T17" s="19"/>
       <c r="U17" s="20"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:21">
       <c r="B18" s="18" t="s">
         <v>112</v>
       </c>
@@ -3801,7 +3769,7 @@
       <c r="T18" s="19"/>
       <c r="U18" s="20"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:21">
       <c r="B19" s="18" t="s">
         <v>113</v>
       </c>
@@ -3825,7 +3793,7 @@
       <c r="T19" s="19"/>
       <c r="U19" s="20"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:21">
       <c r="B20" s="18" t="s">
         <v>114</v>
       </c>
@@ -3849,7 +3817,7 @@
       <c r="T20" s="19"/>
       <c r="U20" s="20"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:21">
       <c r="B21" s="21" t="s">
         <v>115</v>
       </c>
@@ -3873,161 +3841,152 @@
       <c r="T21" s="22"/>
       <c r="U21" s="23"/>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:21">
       <c r="D22" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:21">
       <c r="D23" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:21">
       <c r="D24" t="s">
         <v>118</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20DF2FA-6C7D-4122-AD54-C73F0ABDA7E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B36CDC9-0953-428E-91D5-F93A886E01FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2">
       <c r="B3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC5C5C3B-EE3C-4B29-81A0-C97A7242598F}">
-  <dimension ref="A1:B9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>